--- a/data/NP20versusRestIncomeTrendsEAP.xlsx
+++ b/data/NP20versusRestIncomeTrendsEAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C989055D-E81F-4F94-A442-82FC16D8C7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB2ECCE-2EE3-4CFB-B2FD-419E0D86406F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="16" activeTab="18" xr2:uid="{369675C0-51E2-4F70-A212-E95EC336ADA5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="16" activeTab="18" xr2:uid="{43DF474B-F68F-4587-AD88-C3A6A88A47E2}"/>
   </bookViews>
   <sheets>
     <sheet name="China" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48941D2-C8B5-4F1C-9A55-BCCEC4B9D118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EBAA32-3664-4F89-A43E-DDAE9EA6486C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -249,7 +249,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF991ACF-6369-4B9E-B63C-22A958E7253F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5B6FF7-CED2-4750-8777-E6D7817CED7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -307,7 +307,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAF1829-E1E2-47D6-8223-0407D7F2D62A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD52CB2-B5D2-49D0-9E77-C897AA242440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -365,7 +365,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9389E0-A8D6-4A4B-9CD8-CF57CA433901}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8282E0-AD25-40F6-86EA-8BA6C0AE52B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -423,7 +423,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D962CE-D66F-44BE-890A-43478579B37C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A52EC6-E2E1-42A5-9710-4976BBC40F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -481,7 +481,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4034816-177F-450E-8CE7-D9592DA3A0B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4316ECD2-29B7-4379-A7F4-A59D6498450A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A81B320-2335-410E-973E-FC2CF6071930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36881AE3-2511-4C3E-84D6-33174E777462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,7 +597,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4AEB5E-0AB9-4DED-AB46-8636F9D284DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526ADE7B-379E-4EAA-8118-1494CC236303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,7 +655,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D78FBF8-F89A-4098-835B-14B0098C1987}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEF72CB-0D91-4D76-874E-2FB39EE00CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -713,7 +713,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626E5224-7820-4D4B-87C0-04A9677A241E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902E9F00-59E8-4403-BCB0-60B788967FAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,7 +771,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64DF84C-460D-4943-88B4-36695D404729}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AE92C6-8B60-4813-97D0-1DEBCE59CA63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +829,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11EDAD-D4F0-4633-8652-8B5C97C74768}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C94009-63CD-4ADE-8766-E48A44C1F5D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B64248C-A0F1-4B07-83C8-C54FD2290D9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE90B20B-B22D-480E-9C48-EE5B1276E60C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,7 +945,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE74BB1F-8892-447C-B264-254D3C87272B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B8A2EA6-71D8-4EBA-A2C8-F7D488D8652E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1003,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960A9E28-08DC-4697-B30A-2D1C7646FCE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35A6E26-A3D9-440E-BC9C-637ED70FEDCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1061,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103F5D23-91E2-4DDB-BEEA-46FCE5C2DDAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6D6379-088A-479E-8A3C-A686503807CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1119,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDF0CD8-30AF-4D71-9B55-E9E78E7CF11D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AF1262-A06F-40BB-ABD6-3484592C5878}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1177,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6917A9E9-F247-46BF-96FD-D81CC6F2AAEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18046728-5252-4CD3-95FD-B316FEA4867A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1235,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCAC42C-676B-48EB-9344-23131A9F64B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B6CD66-0393-442F-A2D3-0281FA30E961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43D9B81-EFE7-4C48-9A87-715E0A249D5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C834C284-A9AF-41EE-83AE-160F633A73A0}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7267,7 +7267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8338909D-0892-4939-924F-C270ED3A857E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125FDE24-2A05-4DDD-AC57-1834CE3E02D6}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7505,7 +7505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97772365-3D6F-40FA-A3AC-83C2B48EC691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4E490D-06D5-46AD-803D-C442249DCC97}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7743,7 +7743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8496BA48-D8B1-4CD8-8A02-21DF8263AFAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817B3D20-BDDF-4D90-85EA-B65D4A7BE167}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7981,7 +7981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00922C35-FAC2-4946-8C83-8203E96B171E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09320AE4-69BD-4942-988A-57BF1878395B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8219,7 +8219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AC20DF-F349-4084-B2A0-1CD741DF2563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCFE0AB-101A-41D7-9C53-622F9045CA19}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8457,7 +8457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E30AE1-9B5C-4E38-BDB7-3B2432169024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D339888-04E3-40F3-90C1-AFF118CB89F9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8695,7 +8695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1F9FC8-746D-46FD-97A1-B673BCAAC28B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5559859-B4F8-483F-A678-82D576E3F40F}">
   <dimension ref="I1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8919,7 +8919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCF9509-3B8B-4530-B354-815155543B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFE7729-A566-4DF5-99BC-772DA43C47DD}">
   <dimension ref="I1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9129,7 +9129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7260CB05-966A-4457-ADD6-656030AAE301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7D6F8E-9899-4B68-95B8-6583333B2625}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9325,7 +9325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF0A2BF-534D-43E7-BEC0-D0237B66979E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B763B99-51DC-4CCA-A827-B7DCB90D7C96}">
   <dimension ref="I1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9521,7 +9521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AEFD21-26F3-4D4A-8FEF-AD2C1D89C9F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AB4C4F-12CF-4DB6-9C6E-99861A698A2A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9759,7 +9759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16BC36B-084F-403C-80F5-B9EF42597E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75629216-4E15-4526-8B88-25358D1705A6}">
   <dimension ref="I1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15457,7 +15457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DEAE9A-BE68-4147-ABF0-74032F18D1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1523FF0C-0411-4787-B499-87832E9D6AED}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15695,7 +15695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AFDA1B-8F02-4CAE-A46B-CEFDB7199087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BD84D0-642F-4FF3-A375-B30900E9586F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15933,7 +15933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACCCE2C-ABF6-48F5-A6FE-E095293C1878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28074305-B565-4708-968D-60EF90CE6EFE}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16171,7 +16171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3162F5A3-8870-4394-B6A8-C60DA0C974D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEDE35B-B359-4886-971E-F1C7799FFA89}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16409,7 +16409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C1C5F7-429D-4F5E-A4D5-CEDC0A233ABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B83AB67-6567-46DA-9DD9-41986D6ECC8C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16647,7 +16647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCDB08D-428C-48D8-ADEA-2104E090EE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8091A95B-9F24-45EB-93A4-0DE9F2361854}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
